--- a/company/facebook/fb-freq.xlsx
+++ b/company/facebook/fb-freq.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bozhou/Dropbox/interview/company/facebook/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31AE3123-9C7B-B245-AB4A-AFAB51073FAB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044CAD4B-1D78-EF49-9655-EE346BB6CA7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14180" xr2:uid="{73D08E45-2C8F-FE4C-9DBC-7E8640E92FE9}"/>
+    <workbookView xWindow="11920" yWindow="560" windowWidth="13360" windowHeight="14180" activeTab="1" xr2:uid="{73D08E45-2C8F-FE4C-9DBC-7E8640E92FE9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="phone" sheetId="1" r:id="rId1"/>
+    <sheet name="onsite" sheetId="2" r:id="rId2"/>
+    <sheet name="design" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,15 +32,322 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="81">
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>LC number</t>
+  </si>
+  <si>
+    <t>LC title</t>
+  </si>
+  <si>
+    <t>Freq</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>All Nodes Distance K in Binary Tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convert Binary Search Tree to Sorted Doubly Linked List </t>
+  </si>
+  <si>
+    <t>Clone Graph</t>
+  </si>
+  <si>
+    <t>Task Scheduler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Word Break II </t>
+  </si>
+  <si>
+    <t>Word Break</t>
+  </si>
+  <si>
+    <t>Trending Topics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product of Array Except Self </t>
+  </si>
+  <si>
+    <t>把字符按字符表顺序向右移动K位</t>
+  </si>
+  <si>
+    <t>https://www.1point3acres.com/bbs/thread-549631-1-1.html</t>
+  </si>
+  <si>
+    <t>Merge k Sorted Lists</t>
+  </si>
+  <si>
+    <t>Continuous Subarray Sum</t>
+  </si>
+  <si>
+    <t>设计一个公司内部logistic management system。要求支持追踪每个物品的transfer的记录。</t>
+  </si>
+  <si>
+    <t>Interleaving String</t>
+  </si>
+  <si>
+    <t>merge k sorted array</t>
+  </si>
+  <si>
+    <t>https://www.1point3acres.com/bbs/thread-549074-1-1.html</t>
+  </si>
+  <si>
+    <t>设计一个在线广告计数器的后端</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merge Sorted Array </t>
+  </si>
+  <si>
+    <t>Two Sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trapping Rain Water </t>
+  </si>
+  <si>
+    <t>Group Anagrams</t>
+  </si>
+  <si>
+    <t>找出覆盖所给定区间的最少的interval 合集</t>
+  </si>
+  <si>
+    <r>
+      <t>不出所料考的单机版的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>memcached</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设计</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Completeness of a Binary Tree </t>
+  </si>
+  <si>
+    <t>Binary Tree Paths</t>
+  </si>
+  <si>
+    <t>二叉树所有叶子节点到根的路径之和</t>
+  </si>
+  <si>
+    <t>Design a scalable street view s‍‌‌‍‍‍‌‌‌‌‌‌‍‍ystem to support Uploading, viewing and detecting images</t>
+  </si>
+  <si>
+    <t>https://www.1point3acres.com/bbs/thread-548899-1-1.html</t>
+  </si>
+  <si>
+    <t>Design a scalable system for posting messages and searching messages</t>
+  </si>
+  <si>
+    <t>cd command</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design HashMap  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roman to Integer </t>
+  </si>
+  <si>
+    <t>Intersection of Two Arrays</t>
+  </si>
+  <si>
+    <t>Meeting Rooms II</t>
+  </si>
+  <si>
+    <t>Serialize and Deserialize Binary Tree</t>
+  </si>
+  <si>
+    <t>Diagonal Traverse</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Insert Delete GetRandom O(1)</t>
+  </si>
+  <si>
+    <t>Design. Web Crawler</t>
+  </si>
+  <si>
+    <t>判断句子是不是能由词典里边的词构成</t>
+  </si>
+  <si>
+    <t>https://www.1point3acres.com/bbs/thread-548612-1-1.html</t>
+  </si>
+  <si>
+    <t>Cut wood</t>
+  </si>
+  <si>
+    <t>https://www.1point3acres.com/bbs/thread-548520-1-1.html</t>
+  </si>
+  <si>
+    <t>Employee Free Time</t>
+  </si>
+  <si>
+    <t>2 people extended</t>
+  </si>
+  <si>
+    <t>https://www.1point3acres.com/bbs/thread-548345-1-1.html</t>
+  </si>
+  <si>
+    <t>area of island</t>
+  </si>
+  <si>
+    <t>https://www.1point3acres.com/bbs/thread-548155-1-1.html</t>
+  </si>
+  <si>
+    <t>Nested List Weight Sum</t>
+  </si>
+  <si>
+    <t>Remove Nth Node From End of List</t>
+  </si>
+  <si>
+    <t>求括号的最大深度</t>
+  </si>
+  <si>
+    <t>https://www.1point3acres.com/bbs/thread-547659-1-1.html</t>
+  </si>
+  <si>
+    <t>推荐共同好友</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LRU Cache </t>
+  </si>
+  <si>
+    <t>Insert into a Cyclic Sorted List</t>
+  </si>
+  <si>
+    <t>Word Search</t>
+  </si>
+  <si>
+    <t>Word Search II</t>
+  </si>
+  <si>
+    <r>
+      <t>设计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>搜索</t>
+    </r>
+  </si>
+  <si>
+    <t>Verifying an Alien Dictionary</t>
+  </si>
+  <si>
+    <t>Alien Dictionary</t>
+  </si>
+  <si>
+    <t>https://www.1point3acres.com/bbs/thread-547655-1-1.html</t>
+  </si>
+  <si>
+    <t>Defanging an IP Address</t>
+  </si>
+  <si>
+    <t>opposite way</t>
+  </si>
+  <si>
+    <t>https://www.1point3acres.com/bbs/thread-547321-1-1.html</t>
+  </si>
+  <si>
+    <t>Valid Palindrome II</t>
+  </si>
+  <si>
+    <t>Add Strings</t>
+  </si>
+  <si>
+    <t>Set Matrix Zeroes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lowest Common Ancestor of a Binary Tree </t>
+  </si>
+  <si>
+    <t>Find All Anagrams in a String</t>
+  </si>
+  <si>
+    <t>Design a leetcode like online judgement system</t>
+  </si>
+  <si>
+    <t>Design typeahead search</t>
+  </si>
+  <si>
+    <t>Sparse Matrix Multiplication</t>
+  </si>
+  <si>
+    <t>在一个(0，1)矩阵里找最大的intersection</t>
+  </si>
+  <si>
+    <t>https://www.1point3acres.com/bbs/thread-546404-1-1.html</t>
+  </si>
+  <si>
+    <t>Least number of intervals to cover target interval</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/discuss/interview-question/algorithms/124825/facebook-least-number-of-intervals-to-cover-target-interval</t>
+  </si>
+  <si>
+    <t>page 9</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -58,13 +367,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -377,12 +696,821 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0CD6D38-3055-2C4E-AE36-98D42EF64548}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="97" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="3" max="3" width="47.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <v>863</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>426</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>238</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>958</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8">
+        <v>257</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10">
+        <v>759</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>339</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15">
+        <v>1108</v>
+      </c>
+      <c r="C15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>680</v>
+      </c>
+      <c r="C17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>415</v>
+      </c>
+      <c r="C18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>73</v>
+      </c>
+      <c r="C19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>236</v>
+      </c>
+      <c r="C20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>49</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E5" r:id="rId1" xr:uid="{8B5A93C9-DB84-2740-85F4-669DEF293CC7}"/>
+    <hyperlink ref="E6" r:id="rId2" xr:uid="{7BF6F4F1-61D9-314D-8F8D-B89C3C7FF793}"/>
+    <hyperlink ref="E9" r:id="rId3" xr:uid="{DD257D4C-75CA-A94D-A35E-184841760505}"/>
+    <hyperlink ref="E10" r:id="rId4" xr:uid="{8250BB03-4321-1B4B-9E34-D6666C15CEE7}"/>
+    <hyperlink ref="E11" r:id="rId5" xr:uid="{56301F9C-F022-114B-997E-2EE1AE82156D}"/>
+    <hyperlink ref="E14" r:id="rId6" xr:uid="{372759AA-D0E9-754E-BD98-B623F47733A6}"/>
+    <hyperlink ref="E16" r:id="rId7" xr:uid="{66B6CA99-788D-3947-98E9-7DCF954E610D}"/>
+    <hyperlink ref="F16" r:id="rId8" xr:uid="{A16CFFA9-1F41-5A43-B179-FB5487B856AC}"/>
+    <hyperlink ref="E22" r:id="rId9" xr:uid="{48B5652D-E04E-274F-AF35-BE2A0D24F5A4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F670E82D-1D86-034C-82D6-62D39D8E0BEA}">
+  <dimension ref="A1:F34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="31.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <v>133</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>621</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>139</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>140</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>523</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>97</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>88</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>49</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>706</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>523</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>349</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>253</v>
+      </c>
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>297</v>
+      </c>
+      <c r="C21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>498</v>
+      </c>
+      <c r="C22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>381</v>
+      </c>
+      <c r="C23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>146</v>
+      </c>
+      <c r="C25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>708</v>
+      </c>
+      <c r="C26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>79</v>
+      </c>
+      <c r="C27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>212</v>
+      </c>
+      <c r="C28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>953</v>
+      </c>
+      <c r="C29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>269</v>
+      </c>
+      <c r="C30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>438</v>
+      </c>
+      <c r="C31" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>311</v>
+      </c>
+      <c r="C32" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>76</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E12" r:id="rId1" xr:uid="{C5B31E61-3010-694B-916D-7A0B81DAFC8C}"/>
+    <hyperlink ref="E13" r:id="rId2" xr:uid="{22966E32-BFC6-E946-8F1E-FB15157ED8FE}"/>
+    <hyperlink ref="E14" r:id="rId3" xr:uid="{9AAF02C4-54BA-0046-9471-FE9E7003F1CF}"/>
+    <hyperlink ref="E15" r:id="rId4" xr:uid="{B8F77D78-4F2A-BC4D-84B1-28E3905B65AA}"/>
+    <hyperlink ref="E24" r:id="rId5" xr:uid="{6340DB00-1CA8-9B4B-B6F9-9044079BE45E}"/>
+    <hyperlink ref="F15" r:id="rId6" xr:uid="{FEC88960-47C0-8E4C-AE58-B160E0BA9678}"/>
+    <hyperlink ref="E33" r:id="rId7" xr:uid="{12DA9ABE-51D8-334C-91DF-8FEE0DCC904E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7625E54-5F3A-DF40-B249-632186811EA4}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="81" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C6" r:id="rId1" xr:uid="{D7C305A1-39CA-5A4B-B9B2-E2091E86B162}"/>
+    <hyperlink ref="C10" r:id="rId2" xr:uid="{683FBAA3-6200-F845-924A-402F71D7469A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>